--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/财务费用.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/财务费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.31151</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29.67895</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.42908</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04736</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.7809</v>
-      </c>
-      <c r="G2" t="n">
-        <v>21.69064</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.93097</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.9707</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.42569</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.33877</v>
-      </c>
-      <c r="L2" t="n">
-        <v>393.60872</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.75062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.77505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.68126</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7.41067</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.14722</v>
-      </c>
-      <c r="R2" t="n">
-        <v>10.66205</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.39551</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>8.88203</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.11438</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.62347</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.09593</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>65.43826</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>35.75284</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21.92035</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.25985</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.5096</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.03768</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>21.06686</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.36907</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17.39453</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>16.39814</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>20.83388</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.30751</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>8.29275</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>13.83307</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>9.62364</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6.42025</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.00768</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3.42158</v>
-      </c>
-      <c r="C3" t="n">
-        <v>23.79537</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.30401</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>3.38933</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21.02114</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.556</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.15948</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.54524</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.4868</v>
-      </c>
-      <c r="L3" t="n">
-        <v>378.39986</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.13731</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.85758</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10.10769</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6.12077</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.13392</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9.91032</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.95144</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>8.6854</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.07136000000000001</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.43282</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.40257</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>67.68288</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>36.31343</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23.63662</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6.74508</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.65091</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.41759</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19.1122</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.80047</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19.26198</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>14.93807</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17.82102</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.27485</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>7.47975</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>12.44877</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>6.83421</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8.479939999999999</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.01196</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5.10171</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18.23977</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.19566</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>2.5095</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20.57184</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.33114</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.23072</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.68878</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.45717</v>
-      </c>
-      <c r="L4" t="n">
-        <v>390.62326</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.25312</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.67678</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9.87003</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.25409</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.07813000000000001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9.188549999999999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.84236</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>7.93972</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.10628</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.88628</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.41875</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>69.44987999999999</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>47.6793</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>20.59373</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.53275</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.38825</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.86478</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19.40644</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.70592</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>21.27613</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13.55867</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>17.61243</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.17002</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9.73634</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>13.96104</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>6.85871</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>8.746779999999999</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.01365</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
